--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Downloads\Basuras GIT\Algoritmos y Estructura de Datos\ADT_HT5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\Git Workspace\ADT_HT5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892801FB-6EAF-4ADE-9377-D268D3C8EE63}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFF20F8-C0C1-43E6-82D6-648224705B47}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{3DFECF38-E992-4AB1-9C78-B5F1B4CADFE5}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{3DFECF38-E992-4AB1-9C78-B5F1B4CADFE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
   <si>
     <t>Laboratorio 5</t>
   </si>
@@ -74,12 +74,18 @@
   <si>
     <t>Desviación Estándar en terminar todos los procesos con intervalos de llegada 1</t>
   </si>
+  <si>
+    <t>Definitivamente la mejor estrategia es usar un procesador más rápido. Sin excepción, durante todas las pruebas fue el más rápido. En caso de no ser posible, se obtienen resultados muy similares aumentando la cantidad de CPUs a dos.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +108,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -117,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -183,27 +196,17 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -229,9 +232,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -239,7 +241,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -247,11 +249,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -417,6 +425,21 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>10.56</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>21.79</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>48.19</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>68.84</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>95.53</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -426,6 +449,21 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>10.56</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>21.79</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>48.19</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>68.84</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>95.53</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -473,6 +511,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16.989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135.08000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>183</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -553,6 +606,21 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>10.56</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>23.08</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>48.11</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>69.22</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>95.57</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -562,6 +630,21 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>10.56</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>23.08</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>48.11</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>69.22</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>95.57</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -609,6 +692,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16.989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>141.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>190.21</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -689,6 +787,21 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.99</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.69</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>20.170000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>30.69</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>43.77</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -698,6 +811,21 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.99</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.69</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>20.170000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>30.69</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>43.77</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -745,6 +873,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.64</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -823,6 +966,21 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>3.3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.06</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>20.39</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>30.44</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>43.73</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -832,6 +990,21 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>3.3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.06</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>20.39</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>30.44</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>43.73</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -879,6 +1052,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.83</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -890,7 +1078,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1368,6 +1555,21 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>12.43</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>24.31</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>52.1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>72.989999999999995</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>99.64</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -1377,6 +1579,21 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>12.43</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>24.31</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>52.1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>72.989999999999995</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>99.64</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -1424,6 +1641,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>23.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>187.82</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1504,6 +1736,21 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>12.43</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>23.95</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>51.43</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>73.099999999999994</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>99.55</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -1513,6 +1760,21 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>12.43</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>23.95</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>51.43</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>73.099999999999994</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>99.55</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -1560,6 +1822,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>23.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>146.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>195.02</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1640,6 +1917,21 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>4.71</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>11.04</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>24.06</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>34.69</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>47.83</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -1649,6 +1941,21 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>4.71</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>11.04</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>24.06</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>34.69</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>47.83</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -1696,6 +2003,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.46</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1774,6 +2096,21 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>5.2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10.74</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>24.02</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>34.4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>47.75</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -1783,6 +2120,21 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>5.2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10.74</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>24.02</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>34.4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>47.75</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -1830,6 +2182,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.64</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1841,7 +2208,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2314,6 +2680,21 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>12.78</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>26.79</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>55.43</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>76.36</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>102.96</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -2323,6 +2704,21 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>12.78</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>26.79</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>55.43</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>76.36</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>102.96</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -2370,6 +2766,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>28.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>144.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>191.67</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2450,6 +2861,21 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>24.86</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>54.3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>76.3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>102.78</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -2459,6 +2885,21 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>24.86</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>54.3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>76.3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>102.78</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -2506,6 +2947,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>28.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>114.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>198.88</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2586,6 +3042,21 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>7.12</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>13.8</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>27.4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>38.049999999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>51.14</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -2595,6 +3066,21 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>7.12</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>13.8</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>27.4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>38.049999999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>51.14</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -2642,6 +3128,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.55</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>70.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.31</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2720,6 +3221,21 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>6.36</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>13.05</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>27.28</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>37.74</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>51.05</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -2729,6 +3245,21 @@
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>6.36</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>13.05</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>27.28</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>37.74</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>51.05</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -2776,6 +3307,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.66</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>95.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2787,7 +3333,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3047,6 +3592,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.72753511325039455"/>
+          <c:y val="0.44450988626421695"/>
+          <c:w val="0.25885018286941497"/>
+          <c:h val="0.30000209973753283"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4812,8 +5367,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5210,81 +5765,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64431EFD-848F-41B5-BAAE-BDF9779FBE62}">
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
-    <col min="2" max="6" width="9.44140625" customWidth="1"/>
-    <col min="7" max="7" width="6.21875" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" customWidth="1"/>
-    <col min="9" max="9" width="1.88671875" customWidth="1"/>
-    <col min="10" max="10" width="21.44140625" customWidth="1"/>
-    <col min="11" max="15" width="9.44140625" customWidth="1"/>
-    <col min="17" max="17" width="1.6640625" customWidth="1"/>
-    <col min="18" max="18" width="20" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="1.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="11" max="15" width="9.42578125" customWidth="1"/>
+    <col min="17" max="17" width="1.7109375" customWidth="1"/>
+    <col min="18" max="18" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="F1" s="13" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="R1" s="13" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="R1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
     </row>
-    <row r="2" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="1"/>
       <c r="J2" s="9"/>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
       <c r="R2" s="9"/>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="Y2" s="14"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J3" s="10"/>
       <c r="K3" s="7">
         <v>25</v>
@@ -5317,175 +5874,267 @@
       <c r="W3" s="6">
         <v>200</v>
       </c>
+      <c r="Y3" s="14"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="4"/>
       <c r="J4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
+      <c r="K4" s="11">
+        <v>23.21</v>
+      </c>
+      <c r="L4" s="12">
+        <v>54.02</v>
+      </c>
+      <c r="M4" s="12">
+        <v>102.82</v>
+      </c>
+      <c r="N4" s="12">
+        <v>140.05000000000001</v>
+      </c>
+      <c r="O4" s="12">
+        <v>187.82</v>
+      </c>
       <c r="R4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="11"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="19"/>
+      <c r="S4" s="11">
+        <v>28.39</v>
+      </c>
+      <c r="T4" s="12">
+        <v>57.93</v>
+      </c>
+      <c r="U4" s="12">
+        <v>106.86</v>
+      </c>
+      <c r="V4" s="12">
+        <v>144.03</v>
+      </c>
+      <c r="W4" s="12">
+        <v>191.67</v>
+      </c>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="14"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="3"/>
       <c r="J5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
+      <c r="K5" s="5">
+        <v>23.21</v>
+      </c>
+      <c r="L5" s="5">
+        <v>59.63</v>
+      </c>
+      <c r="M5" s="5">
+        <v>110.19</v>
+      </c>
+      <c r="N5" s="5">
+        <v>146.5</v>
+      </c>
+      <c r="O5" s="5">
+        <v>195.02</v>
+      </c>
       <c r="R5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
+      <c r="S5" s="5">
+        <v>28.43</v>
+      </c>
+      <c r="T5" s="5">
+        <v>63.76</v>
+      </c>
+      <c r="U5" s="5">
+        <v>114.34</v>
+      </c>
+      <c r="V5" s="5">
+        <v>150.47999999999999</v>
+      </c>
+      <c r="W5" s="5">
+        <v>198.88</v>
+      </c>
+      <c r="Y5" s="14"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="3"/>
       <c r="J6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
+      <c r="K6" s="5">
+        <v>7.43</v>
+      </c>
+      <c r="L6" s="5">
+        <v>23.37</v>
+      </c>
+      <c r="M6" s="5">
+        <v>47.51</v>
+      </c>
+      <c r="N6" s="5">
+        <v>66.42</v>
+      </c>
+      <c r="O6" s="5">
+        <v>90.46</v>
+      </c>
       <c r="R6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
+      <c r="S6" s="5">
+        <v>11.93</v>
+      </c>
+      <c r="T6" s="5">
+        <v>27.23</v>
+      </c>
+      <c r="U6" s="5">
+        <v>51.55</v>
+      </c>
+      <c r="V6" s="24">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="W6" s="5">
+        <v>94.31</v>
+      </c>
+      <c r="Y6" s="14"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="3"/>
       <c r="J7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="21"/>
+      <c r="K7" s="5">
+        <v>9.08</v>
+      </c>
+      <c r="L7" s="5">
+        <v>24.89</v>
+      </c>
+      <c r="M7" s="5">
+        <v>49.12</v>
+      </c>
+      <c r="N7" s="5">
+        <v>67.69</v>
+      </c>
+      <c r="O7" s="5">
+        <v>91.64</v>
+      </c>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="14"/>
       <c r="R7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
+      <c r="S7" s="5">
+        <v>13.71</v>
+      </c>
+      <c r="T7" s="5">
+        <v>28.64</v>
+      </c>
+      <c r="U7" s="5">
+        <v>53.11</v>
+      </c>
+      <c r="V7" s="5">
+        <v>71.66</v>
+      </c>
+      <c r="W7" s="24">
+        <v>95.5</v>
+      </c>
+      <c r="Y7" s="14"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y8" s="14"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="J9" s="13" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="J9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="R9" s="13" t="s">
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="R9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="14"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
       <c r="R10" s="9"/>
-      <c r="S10" s="14" t="s">
+      <c r="S10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="Y10" s="14"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="7">
         <v>25</v>
@@ -5534,134 +6183,258 @@
       <c r="W11" s="6">
         <v>200</v>
       </c>
+      <c r="Y11" s="14"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="B12" s="11">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="C12" s="12">
+        <v>49.06</v>
+      </c>
+      <c r="D12" s="12">
+        <v>97.68</v>
+      </c>
+      <c r="E12" s="12">
+        <v>135.08000000000001</v>
+      </c>
+      <c r="F12" s="20">
+        <v>183</v>
+      </c>
       <c r="J12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
+      <c r="K12" s="21">
+        <v>12.43</v>
+      </c>
+      <c r="L12" s="22">
+        <v>24.31</v>
+      </c>
+      <c r="M12" s="22">
+        <v>52.1</v>
+      </c>
+      <c r="N12" s="22">
+        <v>72.989999999999995</v>
+      </c>
+      <c r="O12" s="22">
+        <v>99.64</v>
+      </c>
       <c r="R12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="S12" s="11"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
+      <c r="S12" s="11">
+        <v>12.78</v>
+      </c>
+      <c r="T12" s="12">
+        <v>26.79</v>
+      </c>
+      <c r="U12" s="12">
+        <v>55.43</v>
+      </c>
+      <c r="V12" s="12">
+        <v>76.36</v>
+      </c>
+      <c r="W12" s="12">
+        <v>102.96</v>
+      </c>
+      <c r="Y12" s="14"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="B13" s="5">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="C13" s="5">
+        <v>54.56</v>
+      </c>
+      <c r="D13" s="5">
+        <v>104.94</v>
+      </c>
+      <c r="E13" s="5">
+        <v>141.49</v>
+      </c>
+      <c r="F13" s="5">
+        <v>190.21</v>
+      </c>
       <c r="J13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
+      <c r="K13" s="21">
+        <v>12.43</v>
+      </c>
+      <c r="L13" s="22">
+        <v>23.95</v>
+      </c>
+      <c r="M13" s="22">
+        <v>51.43</v>
+      </c>
+      <c r="N13" s="22">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="O13" s="22">
+        <v>99.55</v>
+      </c>
       <c r="R13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="S13" s="11"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
+      <c r="S13" s="23">
+        <v>13</v>
+      </c>
+      <c r="T13" s="12">
+        <v>24.86</v>
+      </c>
+      <c r="U13" s="20">
+        <v>54.3</v>
+      </c>
+      <c r="V13" s="20">
+        <v>76.3</v>
+      </c>
+      <c r="W13" s="12">
+        <v>102.78</v>
+      </c>
+      <c r="Y13" s="14"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C14" s="5">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="D14" s="5">
+        <v>42.56</v>
+      </c>
+      <c r="E14" s="5">
+        <v>61.42</v>
+      </c>
+      <c r="F14" s="5">
+        <v>85.64</v>
+      </c>
       <c r="J14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
+      <c r="K14" s="21">
+        <v>4.71</v>
+      </c>
+      <c r="L14" s="22">
+        <v>11.04</v>
+      </c>
+      <c r="M14" s="22">
+        <v>24.06</v>
+      </c>
+      <c r="N14" s="22">
+        <v>34.69</v>
+      </c>
+      <c r="O14" s="22">
+        <v>47.83</v>
+      </c>
       <c r="R14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="11"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
+      <c r="S14" s="11">
+        <v>7.12</v>
+      </c>
+      <c r="T14" s="20">
+        <v>13.8</v>
+      </c>
+      <c r="U14" s="20">
+        <v>27.4</v>
+      </c>
+      <c r="V14" s="12">
+        <v>38.049999999999997</v>
+      </c>
+      <c r="W14" s="12">
+        <v>51.14</v>
+      </c>
+      <c r="Y14" s="14"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
+      <c r="B15" s="24">
+        <v>4.8</v>
+      </c>
+      <c r="C15" s="5">
+        <v>20.18</v>
+      </c>
+      <c r="D15" s="5">
+        <v>44.07</v>
+      </c>
+      <c r="E15" s="5">
+        <v>62.68</v>
+      </c>
+      <c r="F15" s="5">
+        <v>86.83</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
       <c r="J15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
+      <c r="K15" s="21">
+        <v>5.2</v>
+      </c>
+      <c r="L15" s="22">
+        <v>10.74</v>
+      </c>
+      <c r="M15" s="22">
+        <v>24.02</v>
+      </c>
+      <c r="N15" s="22">
+        <v>34.4</v>
+      </c>
+      <c r="O15" s="22">
+        <v>47.75</v>
+      </c>
       <c r="R15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="S15" s="11"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
+      <c r="S15" s="11">
+        <v>6.36</v>
+      </c>
+      <c r="T15" s="12">
+        <v>13.05</v>
+      </c>
+      <c r="U15" s="12">
+        <v>27.28</v>
+      </c>
+      <c r="V15" s="12">
+        <v>37.74</v>
+      </c>
+      <c r="W15" s="12">
+        <v>51.05</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="7">
         <v>25</v>
@@ -5679,48 +6452,96 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="B20" s="23">
+        <v>10.56</v>
+      </c>
+      <c r="C20" s="20">
+        <v>21.79</v>
+      </c>
+      <c r="D20" s="20">
+        <v>48.19</v>
+      </c>
+      <c r="E20" s="20">
+        <v>68.84</v>
+      </c>
+      <c r="F20" s="20">
+        <v>95.53</v>
+      </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="B21" s="23">
+        <v>10.56</v>
+      </c>
+      <c r="C21" s="20">
+        <v>23.08</v>
+      </c>
+      <c r="D21" s="20">
+        <v>48.11</v>
+      </c>
+      <c r="E21" s="20">
+        <v>69.22</v>
+      </c>
+      <c r="F21" s="20">
+        <v>95.57</v>
+      </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="B22" s="23">
+        <v>2.99</v>
+      </c>
+      <c r="C22" s="20">
+        <v>8.69</v>
+      </c>
+      <c r="D22" s="20">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="E22" s="20">
+        <v>30.69</v>
+      </c>
+      <c r="F22" s="20">
+        <v>43.77</v>
+      </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
+      <c r="B23" s="23">
+        <v>3.3</v>
+      </c>
+      <c r="C23" s="20">
+        <v>9.06</v>
+      </c>
+      <c r="D23" s="20">
+        <v>20.39</v>
+      </c>
+      <c r="E23" s="20">
+        <v>30.44</v>
+      </c>
+      <c r="F23" s="20">
+        <v>43.73</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A5:H7"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:H4"/>
     <mergeCell ref="S2:W2"/>
     <mergeCell ref="R1:X1"/>
     <mergeCell ref="R9:X9"/>
@@ -5729,17 +6550,9 @@
     <mergeCell ref="K10:O10"/>
     <mergeCell ref="J1:P1"/>
     <mergeCell ref="J9:P9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A5:H7"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>